--- a/results/case1/sensitivity_case1_consq.xlsx
+++ b/results/case1/sensitivity_case1_consq.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1422619043857248</v>
+        <v>0.137242841824761</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08522937981816522</v>
+        <v>-0.08222244980983635</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1004317043569435</v>
+        <v>0.125851429381955</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06016882673814781</v>
+        <v>-0.07539783276323132</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0923949244566615</v>
+        <v>0.119420302518491</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.05535397648295273</v>
+        <v>-0.07154493232251498</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1224224216626345</v>
+        <v>0.1281624789686807</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.07334350766072882</v>
+        <v>-0.07678238700391951</v>
       </c>
     </row>
     <row r="3">
@@ -597,80 +597,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-0.04893586843481113</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.09617581900039135</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G3" t="n">
+        <v>-0.2038681107485456</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I3" t="n">
+        <v>-0.1869466764311357</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" t="n">
+        <v>-0.03264831736392808</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M3" t="n">
+        <v>-0.07612066099882758</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O3" t="n">
+        <v>-0.1640034704953539</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>-0.1760093626868575</v>
       </c>
     </row>
     <row r="4">
@@ -685,7 +669,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.09958321356527804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -693,7 +677,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.07680627595664678</v>
+        <v>-0.06534357045878081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -721,7 +705,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.05940594059405943</v>
+        <v>-0.05408433365484999</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -729,7 +713,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-0.03246643106609669</v>
+        <v>-0.03321916259199823</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -764,7 +748,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.1485190820000892</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -772,19 +756,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.07680627595664678</v>
+        <v>-0.1615193894591722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1422619043857248</v>
+        <v>0.137242841824761</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08522937981816522</v>
+        <v>-0.2860905605583819</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1004317043569435</v>
+        <v>0.125851429381955</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06016882673814781</v>
+        <v>-0.2623445091943671</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -792,7 +776,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.05940594059405943</v>
+        <v>-0.08673265101877807</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -800,19 +784,19 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.03246643106609669</v>
+        <v>-0.1093398235908258</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0923949244566615</v>
+        <v>0.119420302518491</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.05535397648295273</v>
+        <v>-0.2355484028178689</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1224224216626345</v>
+        <v>0.1281624789686807</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.07334350766072882</v>
+        <v>-0.252791749690777</v>
       </c>
     </row>
   </sheetData>
